--- a/membership/reward_calendar_and_tracker.xlsx
+++ b/membership/reward_calendar_and_tracker.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZLightStudio\membership\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2883F378-D76D-4835-9D31-0F057CFB0F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2A5DA6-894A-47EF-B6D3-B6C8E5DDF2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="13875" windowHeight="16935" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="26040" windowHeight="18540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Reward Calendar" sheetId="1" r:id="rId1"/>
-    <sheet name="Member Tracker" sheetId="2" r:id="rId2"/>
+    <sheet name="Member Tracker" sheetId="2" r:id="rId1"/>
+    <sheet name="Reward Calendar" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Quarter</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Promo Code</t>
+  </si>
+  <si>
+    <t>Yearly Reward</t>
+  </si>
+  <si>
+    <t>Nanoleaf Smart Light Item</t>
   </si>
 </sst>
 </file>
@@ -478,81 +484,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -561,36 +531,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
